--- a/企画書_仕様書.xlsx
+++ b/企画書_仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高橋昌也\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高橋昌也\Desktop\ゲーム制作3\09Takahashi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED1649-747F-4714-8D04-C4816809D205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC150C7-EA82-42F7-863F-C6D39F0BE3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="3375" windowWidth="20805" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8115" yWindow="3495" windowWidth="20805" windowHeight="11730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>ジャンル</t>
   </si>
@@ -32,121 +32,7 @@
     <t>ゲームのポイント</t>
   </si>
   <si>
-    <t>ゲームイメージ</t>
-  </si>
-  <si>
-    <t>仕様書（例）</t>
-  </si>
-  <si>
     <t>作業計画</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>ビーム砲</t>
-  </si>
-  <si>
-    <t>左右に移動する（Aキー：左　Dキー：右）</t>
-  </si>
-  <si>
-    <t>（プレイヤー）</t>
-  </si>
-  <si>
-    <t>弾を発射する（SPACEキー：発射）</t>
-  </si>
-  <si>
-    <t>敵の弾に当たると、破壊される</t>
-  </si>
-  <si>
-    <t>3回破壊されるとゲームが終了する</t>
-  </si>
-  <si>
-    <t>インベーダー</t>
-  </si>
-  <si>
-    <t>横に移動し、画面の端まで来ると、反転し下へ移動する</t>
-  </si>
-  <si>
-    <t>（敵）</t>
-  </si>
-  <si>
-    <t>弾を発射する</t>
-  </si>
-  <si>
-    <t>プレイヤーの弾が当たると、消滅する</t>
-  </si>
-  <si>
-    <t>少しずつ移動が速くなっていく</t>
-  </si>
-  <si>
-    <t>画面の一番下までくるとゲームが終了する</t>
-  </si>
-  <si>
-    <t>ＵＦＯ</t>
-  </si>
-  <si>
-    <t>画面上部右に現れ、左へ移動する</t>
-  </si>
-  <si>
-    <t>画面の左にくると消滅する</t>
-  </si>
-  <si>
-    <t>防御壁</t>
-  </si>
-  <si>
-    <t>弾に当たると、当たった部分が消えていく</t>
-  </si>
-  <si>
-    <t>敵が当たると、当たった部分が消えていく</t>
-  </si>
-  <si>
-    <t>プレイヤー弾</t>
-  </si>
-  <si>
-    <t>上に移動する</t>
-  </si>
-  <si>
-    <t>敵に当たると消える</t>
-  </si>
-  <si>
-    <t>UFOに当たると消える</t>
-  </si>
-  <si>
-    <t>防御壁に当たると消える</t>
-  </si>
-  <si>
-    <t>敵の弾にあたると消える</t>
-  </si>
-  <si>
-    <t>敵の弾</t>
-  </si>
-  <si>
-    <t>下に移動する</t>
-  </si>
-  <si>
-    <t>プレイヤーに当たると消える</t>
-  </si>
-  <si>
-    <t>プレイヤーの弾に当たると消える</t>
-  </si>
-  <si>
-    <t>ステージ</t>
-  </si>
-  <si>
-    <t>敵を画面上に配置する</t>
-  </si>
-  <si>
-    <t>プレイヤーを画面下に配置する</t>
-  </si>
-  <si>
-    <t>UFOを出現させる</t>
-  </si>
-  <si>
-    <t>全ての敵を撃破するとステージクリアにする</t>
-  </si>
-  <si>
-    <t>プレイヤーと画面の間に防御壁を配置する</t>
   </si>
   <si>
     <t>企画書</t>
@@ -188,42 +74,413 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>全ての敵を倒すとゲームクリア</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
+    <t>仕様書</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回避（W、A、S、D＋Space）</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>攻撃１（マウス：左クリック）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>攻撃２（マウス：右クリック）</t>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム使用（E）</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１．武器で攻撃して敵にダメージを与える</t>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２．敵の体力がなくなると討伐完了</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウバツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>３．すべての敵を討伐することができるとゲームクリア</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウバツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フィールド上に配置された敵と戦闘するゲーム</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>４．ゲーム開始からゲームクリアまでのタイムを競う</t>
+    <rPh sb="22" eb="23">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スタミナ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>視点移動（マウス：カーソル移動）</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダッシュ（W、A、S、D＋Shift長押し）</t>
+    <rPh sb="18" eb="20">
+      <t>ナガオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動（W：前　S：後ろ　A：左　D：右）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回復アイテム使用時に回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵の攻撃を受けた時に減少</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダッシュ中、徐々に減少</t>
+    <rPh sb="6" eb="8">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回避時、一定量減少</t>
+    <rPh sb="0" eb="3">
+      <t>カイヒジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イッテイリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダッシュ、回避を行っていない間徐々に回復</t>
+    <rPh sb="5" eb="7">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（１）プレイヤー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（２）敵</t>
     <rPh sb="3" eb="4">
       <t>テキ</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フィールド上に配置された敵と戦闘をする</t>
-    <rPh sb="5" eb="6">
-      <t>ジョウ</t>
-    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーから攻撃を受けると減少</t>
     <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（３）アイテム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回復アイテム</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用時、プレイヤーの体力を回復</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（４）UI</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>体力ゲージ</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スタミナゲージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>発生時に無敵時間を付与</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>攻撃を受けた箇所によって減少量を変化させる</t>
+    <rPh sb="12" eb="15">
+      <t>ゲンショウリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーの攻撃が敵に当たった時、与えたダメージを表示</t>
+    <rPh sb="9" eb="10">
       <t>テキ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>セントウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ゲーム開始からゲームクリアまでのタイムを競う</t>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーの体力に合わせて増減する</t>
+    <rPh sb="6" eb="8">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゾウゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーのスタミナに合わせて増減する</t>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゾウゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム欄</t>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ダメージ表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリアタイム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゲーム開始からゲームクリアまでのタイムを表示</t>
     <rPh sb="3" eb="5">
       <t>カイシ</t>
     </rPh>
-    <rPh sb="20" eb="21">
-      <t>キソ</t>
-    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用するアイテムと残りの数を表示</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（５）リザルト</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -231,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -270,19 +527,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -297,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -307,8 +565,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,6 +575,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -537,137 +798,140 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B996"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>42</v>
+      <c r="A1" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
-        <v>43</v>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>46</v>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>47</v>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -3561,6 +3825,18 @@
     </row>
     <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="4"/>
+    </row>
+    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B997" s="4"/>
+    </row>
+    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B998" s="4"/>
+    </row>
+    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B999" s="4"/>
+    </row>
+    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1000" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3574,29 +3850,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
+      <c r="A1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -3630,215 +3908,573 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="5"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="6"/>
+      <c r="A16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="5"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="A24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+      <c r="B28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="B29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/企画書_仕様書.xlsx
+++ b/企画書_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高橋昌也\Desktop\ゲーム制作3\09Takahashi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC150C7-EA82-42F7-863F-C6D39F0BE3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C156889-EA3A-47A3-85F0-42203F0C738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8115" yWindow="3495" windowWidth="20805" windowHeight="11730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="3285" windowWidth="20805" windowHeight="11730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>ジャンル</t>
   </si>
@@ -105,13 +105,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アイテム使用（E）</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>１．武器で攻撃して敵にダメージを与える</t>
     <rPh sb="2" eb="4">
       <t>ブキ</t>
@@ -294,17 +287,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>（１）プレイヤー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（２）敵</t>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -332,10 +314,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>（３）アイテム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>回復アイテム</t>
     <rPh sb="0" eb="2">
       <t>カイフク</t>
@@ -343,23 +321,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>使用時、プレイヤーの体力を回復</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（４）UI</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>体力ゲージ</t>
     <rPh sb="0" eb="2">
       <t>タイリョク</t>
@@ -436,13 +397,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アイテム欄</t>
-    <rPh sb="4" eb="5">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ダメージ表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
@@ -454,33 +408,245 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ゲーム開始からゲームクリアまでのタイムを表示</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
+    <t>ゲームクリア時のタイムを表示</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>使用するアイテムと残りの数を表示</t>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテムのアイコンと所持数を表示</t>
+    <rPh sb="10" eb="13">
+      <t>ショジスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム枠</t>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム使用</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>時計</t>
+    <rPh sb="0" eb="2">
+      <t>トケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>経過時間に合わせて針が動く時計を表示</t>
+    <rPh sb="0" eb="4">
+      <t>ケイカジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>罠</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム変更（マウス：ホイール）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム使用（E）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用するとプレイヤーの体力を回復する</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用すると地面に設置される</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵が踏むと敵の攻撃、移動を一定時間制限する</t>
+  </si>
+  <si>
+    <t>アイテム枠に表示されているアイテムの所持数が0以上のとき表示されているアイテムを使用する</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ショジスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーが視界内にいると攻撃を行う</t>
+  </si>
+  <si>
+    <t>罠にかかっている間攻撃を行わない</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>罠にかかっている間移動を行わない</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーとの距離を詰める</t>
+    <rPh sb="7" eb="9">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーが視界の外にいるときプレイヤーのいる方向へ向かせる</t>
+    <rPh sb="6" eb="8">
+      <t>シカイ</t>
+    </rPh>
     <rPh sb="9" eb="10">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スタートボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択するとゲームがスタートする</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レコード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択するとクリアタイムの記録を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（５）リザルト</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -535,12 +701,24 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -555,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -580,6 +758,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -842,7 +1028,7 @@
     </row>
     <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -850,22 +1036,22 @@
     </row>
     <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -3850,16 +4036,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3908,29 +4094,29 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="A3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="19"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -3944,9 +4130,9 @@
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="20"/>
       <c r="D5" s="11"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -3961,7 +4147,7 @@
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -3974,9 +4160,9 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -3992,9 +4178,8 @@
         <v>10</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -4007,9 +4192,8 @@
         <v>11</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -4019,13 +4203,13 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -4033,31 +4217,29 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -4066,17 +4248,14 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -4084,10 +4263,13 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -4100,9 +4282,9 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4114,13 +4296,10 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -4132,8 +4311,14 @@
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -4141,50 +4326,53 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="9"/>
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -4192,17 +4380,14 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>34</v>
+      <c r="A21" s="5"/>
+      <c r="B21" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -4210,27 +4395,31 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
+      <c r="A23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -4239,16 +4428,16 @@
       <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="9"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -4256,14 +4445,13 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -4274,10 +4462,11 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
@@ -4287,32 +4476,33 @@
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+      <c r="A27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -4321,156 +4511,236 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="B30" s="9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="A31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
+      <c r="A32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="11"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
